--- a/notes/性能比较.xlsx
+++ b/notes/性能比较.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -407,16 +407,22 @@
         <v>物质</v>
       </c>
       <c r="B1" t="str">
-        <v>类型</v>
+        <v>材料类型</v>
       </c>
       <c r="C1" t="str">
+        <v>反应类型</v>
+      </c>
+      <c r="D1" t="str">
         <v>温度</v>
       </c>
-      <c r="D1" t="str">
+      <c r="E1" t="str">
         <v>装置</v>
       </c>
-      <c r="E1" t="str">
-        <v>性能</v>
+      <c r="F1" t="str">
+        <v>储能密度</v>
+      </c>
+      <c r="G1" t="str">
+        <v>文献出处</v>
       </c>
     </row>
     <row r="2">
@@ -427,12 +433,15 @@
         <v>金属氢氧化物</v>
       </c>
       <c r="C2" t="str">
+        <v>化学吸附</v>
+      </c>
+      <c r="D2" t="str">
         <v>588-833K</v>
       </c>
-      <c r="D2" t="str">
+      <c r="E2" t="str">
         <v>闭式</v>
       </c>
-      <c r="E2" t="str">
+      <c r="F2" t="str">
         <v>1.86kJ/kg</v>
       </c>
     </row>
@@ -444,9 +453,12 @@
         <v>金属氢氧化物</v>
       </c>
       <c r="C3" t="str">
+        <v>化学吸附</v>
+      </c>
+      <c r="D3" t="str">
         <v>420-670K</v>
       </c>
-      <c r="D3" t="str">
+      <c r="E3" t="str">
         <v>闭式</v>
       </c>
     </row>
@@ -457,7 +469,10 @@
       <c r="B4" t="str">
         <v>金属氢化物</v>
       </c>
-      <c r="D4" t="str">
+      <c r="C4" t="str">
+        <v>化学吸附</v>
+      </c>
+      <c r="E4" t="str">
         <v>闭式</v>
       </c>
     </row>
@@ -469,9 +484,12 @@
         <v>金属氢化物</v>
       </c>
       <c r="C5" t="str">
+        <v>化学吸附</v>
+      </c>
+      <c r="D5" t="str">
         <v>550-1200K</v>
       </c>
-      <c r="D5" t="str">
+      <c r="E5" t="str">
         <v>闭式</v>
       </c>
     </row>
@@ -483,9 +501,12 @@
         <v>金属碳酸盐</v>
       </c>
       <c r="C6" t="str">
+        <v>化学吸附</v>
+      </c>
+      <c r="D6" t="str">
         <v>高温</v>
       </c>
-      <c r="D6" t="str">
+      <c r="E6" t="str">
         <v>闭式</v>
       </c>
     </row>
@@ -497,9 +518,12 @@
         <v>水合盐</v>
       </c>
       <c r="C7" t="str">
+        <v>化学吸附</v>
+      </c>
+      <c r="D7" t="str">
         <v>低温</v>
       </c>
-      <c r="D7" t="str">
+      <c r="E7" t="str">
         <v>开式</v>
       </c>
     </row>
@@ -511,9 +535,12 @@
         <v>水合盐</v>
       </c>
       <c r="C8" t="str">
+        <v>化学吸附</v>
+      </c>
+      <c r="D8" t="str">
         <v>低温</v>
       </c>
-      <c r="D8" t="str">
+      <c r="E8" t="str">
         <v>开式</v>
       </c>
     </row>
@@ -525,10 +552,19 @@
         <v>水合盐</v>
       </c>
       <c r="C9" t="str">
+        <v>化学吸附</v>
+      </c>
+      <c r="D9" t="str">
         <v>低温</v>
       </c>
-      <c r="D9" t="str">
+      <c r="E9" t="str">
         <v>开式</v>
+      </c>
+      <c r="F9" t="str">
+        <v>2.8GJ/m^3</v>
+      </c>
+      <c r="G9" t="str">
+        <v>VAN ESSEN V M, ZONDAG HA, GORES J C, et al. Characterizationof MgSO4hydrate for thermochemical seasonal heat storage[J]. Journalof Solar Energy Engineering, 2009, 131(4): 041014 .</v>
       </c>
     </row>
     <row r="10">
@@ -539,12 +575,15 @@
         <v>复合型水合盐</v>
       </c>
       <c r="C10" t="str">
+        <v>化学吸附</v>
+      </c>
+      <c r="D10" t="str">
         <v>低温</v>
       </c>
-      <c r="D10" t="str">
+      <c r="E10" t="str">
         <v>开式</v>
       </c>
-      <c r="E10" t="str">
+      <c r="F10" t="str">
         <v>1368kJ/kg</v>
       </c>
     </row>
@@ -556,18 +595,212 @@
         <v>复合型水合盐</v>
       </c>
       <c r="C11" t="str">
+        <v>化学吸附</v>
+      </c>
+      <c r="D11" t="str">
         <v>低温</v>
       </c>
-      <c r="D11" t="str">
+      <c r="E11" t="str">
         <v>开式</v>
       </c>
-      <c r="E11" t="str">
+      <c r="F11" t="str">
         <v>233kWh/kg</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="str">
+        <v>沸石13X-MgSO_4</v>
+      </c>
+      <c r="B12" t="str">
+        <v>复合型水合盐</v>
+      </c>
+      <c r="C12" t="str">
+        <v>化学吸附</v>
+      </c>
+      <c r="D12" t="str">
+        <v>低温</v>
+      </c>
+      <c r="E12" t="str">
+        <v>开式</v>
+      </c>
+      <c r="F12" t="str">
+        <v>166kW·h/m3</v>
+      </c>
+      <c r="G12" t="str">
+        <v>HONGOIS Stephanie, KUZNIK Frederic, STEVENS Philippe, et al.Development and characterization of a new MgSO4–zeolite compositefor long-term thermal energy storage[J]. Solar Energy Materials andSolar Cells, 2011, 95: 1831-1837.</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="str">
+        <v>AL25(氯化锂含量为25%的活性氧化铝与氯化锂的复合材料)</v>
+      </c>
+      <c r="B13" t="str">
+        <v>复合型水合盐</v>
+      </c>
+      <c r="C13" t="str">
+        <v>化学吸附</v>
+      </c>
+      <c r="D13" t="str">
+        <v>低温</v>
+      </c>
+      <c r="E13" t="str">
+        <v>开式</v>
+      </c>
+      <c r="F13" t="str">
+        <v>318.3kW·h/m3</v>
+      </c>
+      <c r="G13" t="str">
+        <v>ZHANG Y N, WANG R Z, LI T X. Thermochemical characterizationsof high-stable activated alumina/ LiCl composites with multistagesorption process for thermal storage[J]. Energy, 2018, 156: 240-249.</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="str">
+        <v>LiCl/MWCNT/PVA-水</v>
+      </c>
+      <c r="B14" t="str">
+        <v>复合型水合盐</v>
+      </c>
+      <c r="C14" t="str">
+        <v>化学吸附</v>
+      </c>
+      <c r="D14" t="str">
+        <v>低温</v>
+      </c>
+      <c r="E14" t="str">
+        <v>开式</v>
+      </c>
+      <c r="F14" t="str">
+        <v>1.5~1.6kJ/g</v>
+      </c>
+      <c r="G14" t="str">
+        <v>BRANCATO Vincenza, GORDEEVA Larisa G, GREKOVA AlexandraD, et al. Water adsorption equilibrium and dynamics of LICL/MWCNT/PVA composite for adsorptive heat storage[J]. Solar Energy Materialsand Solar Cells, 2019, 193: 133-140</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="str">
+        <v>SBA-15（分子筛）-H_2O</v>
+      </c>
+      <c r="B15" t="str">
+        <v>硅酸盐</v>
+      </c>
+      <c r="C15" t="str">
+        <v>物理吸附</v>
+      </c>
+      <c r="G15" t="str">
+        <v xml:space="preserve"> CENTINEO Alessio , NGUYEN Huong Giang T, ESPINAL Laura, etal. An experimental and modelling study of water vapour adsorption onSBA-15[J]. Microporous and Mesoporous Materials, 2019, 282: 53-72.</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="str">
+        <v>NaOH/H2O</v>
+      </c>
+      <c r="B16" t="str">
+        <v>溶液</v>
+      </c>
+      <c r="C16" t="str">
+        <v>吸收</v>
+      </c>
+      <c r="D16" t="str">
+        <v>100～150˚C(储)40～65（供）</v>
+      </c>
+      <c r="E16" t="str">
+        <v>闭式</v>
+      </c>
+      <c r="F16" t="str">
+        <v>800MJ/m^3</v>
+      </c>
+      <c r="G16" t="str">
+        <v xml:space="preserve"> WEBER R, DORER V. Long-term heat storage with NaOH[J].Vacuum, 2008, 82: 708-716</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="str">
+        <v>LiCl/H2O</v>
+      </c>
+      <c r="B17" t="str">
+        <v>溶液</v>
+      </c>
+      <c r="C17" t="str">
+        <v>吸收</v>
+      </c>
+      <c r="F17" t="str">
+        <v>910MJ/m^3</v>
+      </c>
+      <c r="G17" t="str">
+        <v>BALES C, JAENING D, GANTENBEIN P, et al. Laboratory prototypesof thermo-chemical and sorption storage units : report B3 of subtask B[R]. IEA, 2007</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="str">
+        <v>LiBr/H2O</v>
+      </c>
+      <c r="B18" t="str">
+        <v>溶液</v>
+      </c>
+      <c r="C18" t="str">
+        <v>吸收</v>
+      </c>
+      <c r="D18" t="str">
+        <v>30˚C（供）</v>
+      </c>
+      <c r="F18" t="str">
+        <v>907MJ/m^3</v>
+      </c>
+      <c r="G18" t="str">
+        <v>N’TSOUKPOE K Edem, LE PIERRES Nolwenn, LUO Lingai.Numerical dynamic simulation and analysis of a lithium bromide/waterlong-term solar heat storage system[J]. Energy, 2012, 37: 346-358</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="str">
+        <v>CaCl2/H2O</v>
+      </c>
+      <c r="B19" t="str">
+        <v>溶液</v>
+      </c>
+      <c r="C19" t="str">
+        <v>吸收</v>
+      </c>
+      <c r="F19" t="str">
+        <v>418MJ/m^3</v>
+      </c>
+      <c r="G19" t="str">
+        <v>LIU Hui. Stockage inter-saisonnier d’e ́nergie solaire pourl’habitatpar absorption[D].Grenoble: Universite ́ de Grenoble, 2010.</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="str">
+        <v>异丙醇/丙酮/氢</v>
+      </c>
+      <c r="C20" t="str">
+        <v>吸收</v>
+      </c>
+      <c r="D20" t="str">
+        <v>&lt;160˚C</v>
+      </c>
+      <c r="G20" t="str">
+        <v>[1] PREVOST M, BUGAREL R. Chemical heat pumps: systemisopropanol-acetone-hydrogen[C]//Proceedings of the InternationalConference on Energy Storage, 1980.[2]XU Min, CAI Jun, GUO Jiangfeng, et al. Technical and economicfeasibility of the isopropanol-acetone-hydrogen chemical heat pumpbased on a lab-scale prototype[J]. Energy, 2017, 139: 1030-1039.</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="str">
+        <v>Ni-CNTs–LiOH∙H2O</v>
+      </c>
+      <c r="B21" t="str">
+        <v>复合型水合盐</v>
+      </c>
+      <c r="C21" t="str">
+        <v>化学吸附</v>
+      </c>
+      <c r="F21" t="str">
+        <v>3935kJ/kg</v>
+      </c>
+      <c r="G21" t="str">
+        <v>LI Shijie, HUANG Hongyu, LI Jun, et al. The effect of 3D carbonnanoadditives on lithium hydroxide monohydrate based compositematerials for highly efficient low temperature thermochemical heatstorage[J]. RSC Adv., 2018, 8: 81-99.</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:E11"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:G21"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/notes/性能比较.xlsx
+++ b/notes/性能比较.xlsx
@@ -5,16 +5,19 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alam/giec/文献/notes/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alam/giec/CHS/notes/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D14F5A6-4652-A740-ACCF-D389D7EA7D93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8C871B9-1BCB-3A43-A3E9-4DF5A662F1CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="51200" yWindow="2480" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$F$35</definedName>
+  </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
@@ -492,7 +495,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -500,13 +503,34 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -848,8 +872,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="182" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:F35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -865,22 +889,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="1" customFormat="1">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
@@ -888,30 +912,35 @@
       </c>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" t="s">
+      <c r="A2" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="C2" t="s">
+      <c r="B2" s="3"/>
+      <c r="C2" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="3" t="s">
         <v>77</v>
       </c>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
       <c r="G2" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" t="s">
+      <c r="A3" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="C3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" t="s">
+      <c r="C3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3" t="s">
         <v>88</v>
       </c>
       <c r="G3" t="s">
@@ -922,22 +951,22 @@
       </c>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" t="s">
+      <c r="A4" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="C4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="3" t="s">
         <v>118</v>
       </c>
       <c r="G4" t="s">
@@ -945,22 +974,22 @@
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" t="s">
+      <c r="A5" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="C5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" s="3" t="s">
         <v>34</v>
       </c>
       <c r="G5" t="s">
@@ -968,22 +997,22 @@
       </c>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" t="s">
+      <c r="A6" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" t="s">
+      <c r="C6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F6" s="3" t="s">
         <v>36</v>
       </c>
       <c r="G6" t="s">
@@ -994,22 +1023,22 @@
       </c>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" t="s">
+      <c r="A7" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" t="s">
+      <c r="C7" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F7" s="3" t="s">
         <v>38</v>
       </c>
       <c r="G7" t="s">
@@ -1020,22 +1049,22 @@
       </c>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" t="s">
+      <c r="A8" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8" t="s">
+      <c r="C8" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F8" s="3" t="s">
         <v>41</v>
       </c>
       <c r="G8" t="s">
@@ -1046,16 +1075,18 @@
       </c>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" t="s">
+      <c r="A9" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C9" t="s">
-        <v>9</v>
-      </c>
-      <c r="F9" t="s">
+      <c r="C9" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3" t="s">
         <v>66</v>
       </c>
       <c r="G9" t="s">
@@ -1066,16 +1097,18 @@
       </c>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" t="s">
+      <c r="A10" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C10" t="s">
-        <v>9</v>
-      </c>
-      <c r="F10" t="s">
+      <c r="C10" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3" t="s">
         <v>70</v>
       </c>
       <c r="G10" t="s">
@@ -1086,19 +1119,20 @@
       </c>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" t="s">
+      <c r="A11" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C11" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" t="s">
+      <c r="C11" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="F11" t="s">
+      <c r="E11" s="3"/>
+      <c r="F11" s="3" t="s">
         <v>73</v>
       </c>
       <c r="G11" t="s">
@@ -1109,16 +1143,18 @@
       </c>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" t="s">
+      <c r="A12" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C12" t="s">
-        <v>9</v>
-      </c>
-      <c r="F12" t="s">
+      <c r="C12" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3" t="s">
         <v>100</v>
       </c>
       <c r="G12" t="s">
@@ -1129,79 +1165,83 @@
       </c>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" t="s">
+      <c r="A13" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C13" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" t="s">
+      <c r="C13" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E13" s="3" t="s">
         <v>11</v>
       </c>
+      <c r="F13" s="3"/>
       <c r="G13" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" t="s">
+      <c r="A14" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C14" t="s">
-        <v>9</v>
-      </c>
-      <c r="D14" t="s">
+      <c r="C14" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E14" s="3" t="s">
         <v>11</v>
       </c>
+      <c r="F14" s="3"/>
       <c r="G14" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" t="s">
+      <c r="A15" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C15" t="s">
-        <v>9</v>
-      </c>
-      <c r="D15" t="s">
+      <c r="C15" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" s="3" t="s">
         <v>79</v>
       </c>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
       <c r="G15" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" t="s">
+      <c r="A16" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C16" t="s">
-        <v>9</v>
-      </c>
-      <c r="D16" t="s">
+      <c r="C16" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E16" t="s">
+      <c r="E16" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F16" t="s">
+      <c r="F16" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G16" t="s">
@@ -1212,42 +1252,43 @@
       </c>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" t="s">
+      <c r="A17" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C17" t="s">
-        <v>9</v>
-      </c>
-      <c r="D17" t="s">
+      <c r="C17" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E17" t="s">
+      <c r="E17" s="3" t="s">
         <v>11</v>
       </c>
+      <c r="F17" s="3"/>
       <c r="G17" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" t="s">
+      <c r="A18" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C18" t="s">
-        <v>9</v>
-      </c>
-      <c r="D18" t="s">
+      <c r="C18" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E18" t="s">
+      <c r="E18" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="F18" t="s">
+      <c r="F18" s="3" t="s">
         <v>82</v>
       </c>
       <c r="G18" t="s">
@@ -1258,42 +1299,43 @@
       </c>
     </row>
     <row r="19" spans="1:8">
-      <c r="A19" t="s">
+      <c r="A19" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C19" t="s">
-        <v>9</v>
-      </c>
-      <c r="D19" t="s">
+      <c r="C19" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D19" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E19" t="s">
+      <c r="E19" s="3" t="s">
         <v>11</v>
       </c>
+      <c r="F19" s="3"/>
       <c r="G19" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" t="s">
+      <c r="A20" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C20" t="s">
-        <v>9</v>
-      </c>
-      <c r="D20" t="s">
+      <c r="C20" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D20" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E20" t="s">
+      <c r="E20" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="F20" t="s">
+      <c r="F20" s="3" t="s">
         <v>84</v>
       </c>
       <c r="G20" t="s">
@@ -1304,62 +1346,64 @@
       </c>
     </row>
     <row r="21" spans="1:8">
-      <c r="A21" t="s">
+      <c r="A21" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C21" t="s">
-        <v>9</v>
-      </c>
-      <c r="D21" t="s">
+      <c r="C21" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D21" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="E21" t="s">
+      <c r="E21" s="3" t="s">
         <v>27</v>
       </c>
+      <c r="F21" s="3"/>
       <c r="G21" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="22" spans="1:8">
-      <c r="A22" t="s">
+      <c r="A22" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C22" t="s">
-        <v>9</v>
-      </c>
-      <c r="D22" t="s">
+      <c r="C22" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D22" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="E22" t="s">
+      <c r="E22" s="3" t="s">
         <v>27</v>
       </c>
+      <c r="F22" s="3"/>
       <c r="G22" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" t="s">
+      <c r="A23" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C23" t="s">
-        <v>9</v>
-      </c>
-      <c r="D23" t="s">
+      <c r="C23" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D23" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="E23" t="s">
+      <c r="E23" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="F23" t="s">
+      <c r="F23" s="3" t="s">
         <v>30</v>
       </c>
       <c r="G23" t="s">
@@ -1370,16 +1414,18 @@
       </c>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24" t="s">
+      <c r="A24" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C24" t="s">
-        <v>9</v>
-      </c>
-      <c r="F24" t="s">
+      <c r="C24" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3" t="s">
         <v>68</v>
       </c>
       <c r="G24" t="s">
@@ -1390,19 +1436,20 @@
       </c>
     </row>
     <row r="25" spans="1:8">
-      <c r="A25" t="s">
+      <c r="A25" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C25" t="s">
-        <v>9</v>
-      </c>
-      <c r="D25" t="s">
+      <c r="C25" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D25" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="F25" t="s">
+      <c r="E25" s="3"/>
+      <c r="F25" s="3" t="s">
         <v>92</v>
       </c>
       <c r="G25" t="s">
@@ -1413,16 +1460,18 @@
       </c>
     </row>
     <row r="26" spans="1:8">
-      <c r="A26" t="s">
+      <c r="A26" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C26" t="s">
-        <v>9</v>
-      </c>
-      <c r="F26" t="s">
+      <c r="C26" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3" t="s">
         <v>95</v>
       </c>
       <c r="G26" t="s">
@@ -1433,16 +1482,18 @@
       </c>
     </row>
     <row r="27" spans="1:8">
-      <c r="A27" t="s">
+      <c r="A27" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C27" t="s">
-        <v>9</v>
-      </c>
-      <c r="F27" t="s">
+      <c r="C27" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3" t="s">
         <v>98</v>
       </c>
       <c r="G27" t="s">
@@ -1453,16 +1504,18 @@
       </c>
     </row>
     <row r="28" spans="1:8">
-      <c r="A28" t="s">
+      <c r="A28" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C28" t="s">
-        <v>9</v>
-      </c>
-      <c r="F28" t="s">
+      <c r="C28" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3" t="s">
         <v>102</v>
       </c>
       <c r="G28" t="s">
@@ -1473,15 +1526,18 @@
       </c>
     </row>
     <row r="29" spans="1:8">
-      <c r="A29" t="s">
+      <c r="A29" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="C29" t="s">
+      <c r="B29" s="3"/>
+      <c r="C29" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="D29" t="s">
+      <c r="D29" s="3" t="s">
         <v>64</v>
       </c>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
       <c r="G29" t="s">
         <v>105</v>
       </c>
@@ -1490,15 +1546,18 @@
       </c>
     </row>
     <row r="30" spans="1:8">
-      <c r="A30" t="s">
+      <c r="A30" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C30" s="3" t="s">
         <v>44</v>
       </c>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
       <c r="G30" t="s">
         <v>105</v>
       </c>
@@ -1507,22 +1566,22 @@
       </c>
     </row>
     <row r="31" spans="1:8">
-      <c r="A31" t="s">
+      <c r="A31" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C31" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="D31" t="s">
+      <c r="D31" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="E31" t="s">
+      <c r="E31" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F31" t="s">
+      <c r="F31" s="3" t="s">
         <v>50</v>
       </c>
       <c r="G31" t="s">
@@ -1533,16 +1592,18 @@
       </c>
     </row>
     <row r="32" spans="1:8">
-      <c r="A32" t="s">
+      <c r="A32" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B32" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C32" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="F32" t="s">
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3" t="s">
         <v>53</v>
       </c>
       <c r="G32" t="s">
@@ -1553,19 +1614,20 @@
       </c>
     </row>
     <row r="33" spans="1:8">
-      <c r="A33" t="s">
+      <c r="A33" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B33" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C33" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="D33" t="s">
+      <c r="D33" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="F33" t="s">
+      <c r="E33" s="3"/>
+      <c r="F33" s="3" t="s">
         <v>57</v>
       </c>
       <c r="G33" t="s">
@@ -1576,19 +1638,20 @@
       </c>
     </row>
     <row r="34" spans="1:8">
-      <c r="A34" t="s">
+      <c r="A34" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B34" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C34" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="D34" t="s">
+      <c r="D34" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="F34" t="s">
+      <c r="E34" s="3"/>
+      <c r="F34" s="3" t="s">
         <v>59</v>
       </c>
       <c r="G34" t="s">
@@ -1599,16 +1662,18 @@
       </c>
     </row>
     <row r="35" spans="1:8" ht="16">
-      <c r="A35" t="s">
+      <c r="A35" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B35" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C35" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="F35" t="s">
+      <c r="D35" s="3"/>
+      <c r="E35" s="3"/>
+      <c r="F35" s="3" t="s">
         <v>61</v>
       </c>
       <c r="G35" t="s">
@@ -1624,6 +1689,7 @@
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
   <ignoredErrors>
     <ignoredError sqref="A1:H1" numberStoredAsText="1"/>
   </ignoredErrors>
